--- a/Ladex/スタイル情報.xlsx
+++ b/Ladex/スタイル情報.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\networkDrive\Git\Ladex\setupLadex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\VBA\Ladex\Ladex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1989CB9-490F-4643-9E1F-F03149205E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{F7C2ED9B-B455-43CA-B06F-89826D7BEF24}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Style" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Act_R1C1表記">#REF!</definedName>
@@ -158,22 +156,12 @@
     <definedName name="Spr_罫線_破線_水平">#REF!</definedName>
     <definedName name="Spr_標準画面">#REF!</definedName>
     <definedName name="Spr_名前定義削除">#REF!</definedName>
-    <definedName name="処理リスト">[2]設定!$D$3:$D$12</definedName>
+    <definedName name="処理リスト">[1]設定!$D$3:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -388,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="9"/>
@@ -481,7 +469,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -575,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +579,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -597,9 +594,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -615,10 +609,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -632,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,37 +648,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="設定"/>
-      <sheetName val="Notice"/>
-      <sheetName val="Style"/>
-      <sheetName val="Help"/>
-      <sheetName val="Function"/>
-      <sheetName val="SheetList"/>
-      <sheetName val="Stamp"/>
-      <sheetName val="HighLight"/>
-      <sheetName val="Favorite"/>
-      <sheetName val="testData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -778,7 +744,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -790,7 +756,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -837,23 +803,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -889,23 +838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,23 +989,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E703AC5-A3E4-4FC3-882B-274C9E39544D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet03"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD22"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="3" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1110,236 +1042,236 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -1347,25 +1279,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1373,28 +1305,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -1402,25 +1334,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -1428,25 +1360,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -1454,25 +1386,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="13" t="s">
@@ -1480,25 +1412,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="14" t="s">
@@ -1506,86 +1438,86 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="15" t="s">
@@ -1593,28 +1525,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="16" t="s">
@@ -1622,28 +1554,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="17" t="s">
@@ -1651,28 +1583,28 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="18" t="s">
@@ -1682,13 +1614,14 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A12 A2:A5 A14:A34" xr:uid="{5853955C-57E4-4AC1-8722-698299C5482F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A12 A2:A5 A14:A34">
       <formula1>"無効"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I34" xr:uid="{CFCA2212-595C-4968-BBBA-38644BAD8658}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I34">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ladex/スタイル情報.xlsx
+++ b/Ladex/スタイル情報.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\VBA\Ladex\Ladex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\networkDrive\Git\Ladex\Ladex\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0A855-C106-43BC-B167-DCD17340E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13560"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Style" sheetId="1" r:id="rId1"/>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>有効/無効</t>
     <phoneticPr fontId="3"/>
@@ -291,93 +292,18 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>《》</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>《@》</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイリオ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>H_標準</t>
     <rPh sb="2" eb="4">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
-  <si>
-    <t>H_目次1</t>
-    <rPh sb="2" eb="4">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メイリオ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>H_目次2</t>
-    <rPh sb="2" eb="4">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H_目次3</t>
-    <rPh sb="2" eb="4">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無効</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>数値[+千単位]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">+#,##0,_ ;[赤]-#,##0, </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>▲数値(千単位)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[赤]#,##0,_ ;"▲"#,##0,_ ;0 </t>
-  </si>
-  <si>
-    <t>B_facebook</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B_Twitter</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B_Google</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B_Yahoo</t>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -426,50 +352,14 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,42 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4867AA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00ACED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0132"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -545,31 +405,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF538DD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF538DD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,34 +442,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,14 +807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet03"/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1248,7 +1066,7 @@
       <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1308,316 +1126,35 @@
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="18" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A12 A2:A5 A14:A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 A9:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"無効"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Ladex/スタイル情報.xlsx
+++ b/Ladex/スタイル情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\networkDrive\Git\Ladex\Ladex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB0A855-C106-43BC-B167-DCD17340E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6AF33C-75F3-4BCD-A089-D1A14F4172BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-30" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Style" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,21 @@
     <definedName name="Spr_名前定義削除">#REF!</definedName>
     <definedName name="処理リスト">[1]設定!$D$3:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -411,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,9 +431,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -466,7 +474,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="設定"/>
@@ -814,16 +822,16 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K2" sqref="K2"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD22"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="4" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="3" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -860,291 +868,291 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
